--- a/input/Financial Statement GPS/Compiled Income Statement-GPS.xlsx
+++ b/input/Financial Statement GPS/Compiled Income Statement-GPS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,105 +442,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Year Ended 2016</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2017</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2017</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2017</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2017</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2017</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2018</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2018</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2018</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2018</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Year Ended 2018</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Q1 2019</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Q2 2019</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Q3 2019</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Q4 2019</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2019</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Q1 2020</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Q2 2020</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Q3 2020</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Q4 2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Q1 2021</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Q2 2021</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Q3 2021</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Q4 2021</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2021</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Q1 2022</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Q2 2022</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Q3 2022</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Q4 2022</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2022</t>
         </is>
@@ -553,54 +603,84 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>15797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3438</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3851</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3798</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11718</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15516</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3440</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3799</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3838</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12017</v>
+      </c>
+      <c r="L2" t="n">
         <v>15855</v>
       </c>
-      <c r="C2" t="n">
+      <c r="M2" t="n">
         <v>3783</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>4085</v>
       </c>
-      <c r="E2" t="n">
+      <c r="O2" t="n">
         <v>4089</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>3706</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3998</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>2107</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3275</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3994</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
+        <v>3706</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4005</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3998</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>2107</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3275</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3994</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="n">
         <v>3991</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AC2" t="n">
         <v>4211</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AD2" t="n">
         <v>3943</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AE2" t="n">
         <v>16669996057</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AF2" t="n">
         <v>16670000000</v>
       </c>
     </row>
@@ -615,28 +695,38 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>16580</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>16383</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>13800000000</v>
+        <v>16580</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>16383</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>13800000000</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -645,66 +735,96 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>10077</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2414</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2305</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9876</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2137</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2320</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2313</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7476</v>
+      </c>
+      <c r="L4" t="n">
         <v>9789</v>
       </c>
-      <c r="C4" t="n">
+      <c r="M4" t="n">
         <v>2356</v>
       </c>
-      <c r="D4" t="n">
+      <c r="N4" t="n">
         <v>2458</v>
       </c>
-      <c r="E4" t="n">
+      <c r="O4" t="n">
         <v>2466</v>
       </c>
-      <c r="F4" t="n">
+      <c r="P4" t="n">
         <v>7792</v>
       </c>
-      <c r="G4" t="n">
+      <c r="Q4" t="n">
         <v>10258</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
         <v>2362</v>
       </c>
-      <c r="I4" t="n">
+      <c r="S4" t="n">
         <v>2449</v>
       </c>
-      <c r="J4" t="n">
+      <c r="T4" t="n">
         <v>2439</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
         <v>7811</v>
       </c>
-      <c r="L4" t="n">
+      <c r="V4" t="n">
         <v>10250</v>
       </c>
-      <c r="M4" t="n">
+      <c r="W4" t="n">
         <v>1839</v>
       </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
         <v>2126</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Y4" t="n">
         <v>2374</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Z4" t="n">
         <v>9094997626</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AA4" t="n">
         <v>9095000000</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AB4" t="n">
         <v>2361</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AC4" t="n">
         <v>2388</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AD4" t="n">
         <v>2282</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AE4" t="n">
         <v>10032997718</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AF4" t="n">
         <v>10033000000</v>
       </c>
     </row>
@@ -715,66 +835,96 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>5720</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1437</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1493</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4147</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5640</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1303</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1479</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1525</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4541</v>
+      </c>
+      <c r="L5" t="n">
         <v>6066</v>
       </c>
-      <c r="C5" t="n">
+      <c r="M5" t="n">
         <v>1427</v>
       </c>
-      <c r="D5" t="n">
+      <c r="N5" t="n">
         <v>1627</v>
       </c>
-      <c r="E5" t="n">
+      <c r="O5" t="n">
         <v>1623</v>
       </c>
-      <c r="F5" t="n">
+      <c r="P5" t="n">
         <v>4699</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Q5" t="n">
         <v>6322</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
         <v>1344</v>
       </c>
-      <c r="I5" t="n">
+      <c r="S5" t="n">
         <v>1556</v>
       </c>
-      <c r="J5" t="n">
+      <c r="T5" t="n">
         <v>1559</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
         <v>4574</v>
       </c>
-      <c r="L5" t="n">
+      <c r="V5" t="n">
         <v>6133</v>
       </c>
-      <c r="M5" t="n">
+      <c r="W5" t="n">
         <v>268</v>
       </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
         <v>1149</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Y5" t="n">
         <v>1620</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Z5" t="n">
         <v>4704998380</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AA5" t="n">
         <v>4705000000</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AB5" t="n">
         <v>1630</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AC5" t="n">
         <v>1823</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AD5" t="n">
         <v>1661</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AE5" t="n">
         <v>6636998339</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AF5" t="n">
         <v>6637000000</v>
       </c>
     </row>
@@ -785,66 +935,96 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>4196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>987</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1158</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3345</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4449</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1049</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1028</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1147</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3440</v>
+      </c>
+      <c r="L6" t="n">
         <v>4587</v>
       </c>
-      <c r="C6" t="n">
+      <c r="M6" t="n">
         <v>1198</v>
       </c>
-      <c r="D6" t="n">
+      <c r="N6" t="n">
         <v>1229</v>
       </c>
-      <c r="E6" t="n">
+      <c r="O6" t="n">
         <v>1260</v>
       </c>
-      <c r="F6" t="n">
+      <c r="P6" t="n">
         <v>3700</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Q6" t="n">
         <v>4960</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
         <v>1028</v>
       </c>
-      <c r="I6" t="n">
+      <c r="S6" t="n">
         <v>1274</v>
       </c>
-      <c r="J6" t="n">
+      <c r="T6" t="n">
         <v>1338</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
         <v>4221</v>
       </c>
-      <c r="L6" t="n">
+      <c r="V6" t="n">
         <v>5559</v>
       </c>
-      <c r="M6" t="n">
+      <c r="W6" t="n">
         <v>1512</v>
       </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
         <v>1076</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Y6" t="n">
         <v>1445</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Z6" t="n">
         <v>5566998555</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AA6" t="n">
         <v>5567000000</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AB6" t="n">
         <v>1390</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AC6" t="n">
         <v>1414</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AD6" t="n">
         <v>1508</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AE6" t="n">
         <v>5826998492</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AF6" t="n">
         <v>5827000000</v>
       </c>
     </row>
@@ -855,66 +1035,96 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1524</v>
+      </c>
+      <c r="C7" t="n">
+        <v>222</v>
+      </c>
+      <c r="D7" t="n">
+        <v>279</v>
+      </c>
+      <c r="E7" t="n">
+        <v>389</v>
+      </c>
+      <c r="F7" t="n">
+        <v>802</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1191</v>
+      </c>
+      <c r="H7" t="n">
+        <v>254</v>
+      </c>
+      <c r="I7" t="n">
+        <v>451</v>
+      </c>
+      <c r="J7" t="n">
+        <v>378</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1101</v>
+      </c>
+      <c r="L7" t="n">
         <v>1479</v>
       </c>
-      <c r="C7" t="n">
+      <c r="M7" t="n">
         <v>229</v>
       </c>
-      <c r="D7" t="n">
+      <c r="N7" t="n">
         <v>398</v>
       </c>
-      <c r="E7" t="n">
+      <c r="O7" t="n">
         <v>363</v>
       </c>
-      <c r="F7" t="n">
+      <c r="P7" t="n">
         <v>999</v>
       </c>
-      <c r="G7" t="n">
+      <c r="Q7" t="n">
         <v>1362</v>
       </c>
-      <c r="H7" t="n">
+      <c r="R7" t="n">
         <v>316</v>
       </c>
-      <c r="I7" t="n">
+      <c r="S7" t="n">
         <v>282</v>
       </c>
-      <c r="J7" t="n">
+      <c r="T7" t="n">
         <v>221</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
         <v>353</v>
       </c>
-      <c r="L7" t="n">
+      <c r="V7" t="n">
         <v>574</v>
       </c>
-      <c r="M7" t="n">
+      <c r="W7" t="n">
         <v>-1244</v>
       </c>
-      <c r="N7" t="n">
+      <c r="X7" t="n">
         <v>73</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Y7" t="n">
         <v>175</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Z7" t="n">
         <v>-862000175</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AA7" t="n">
         <v>-862000000</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AB7" t="n">
         <v>240</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AC7" t="n">
         <v>409</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AD7" t="n">
         <v>153</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AE7" t="n">
         <v>809999847</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AF7" t="n">
         <v>810000000</v>
       </c>
     </row>
@@ -936,29 +1146,39 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
         <v>58</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Y8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Z8" t="n">
         <v>58000000</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AA8" t="n">
         <v>58000000</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AD8" t="n">
         <v>325</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AE8" t="n">
         <v>324999675</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AF8" t="n">
         <v>325000000</v>
       </c>
     </row>
@@ -969,66 +1189,96 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>59</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55</v>
+      </c>
+      <c r="G9" t="n">
+        <v>75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L9" t="n">
         <v>74</v>
       </c>
-      <c r="C9" t="n">
+      <c r="M9" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="N9" t="n">
         <v>17</v>
       </c>
-      <c r="E9" t="n">
+      <c r="O9" t="n">
         <v>21</v>
       </c>
-      <c r="F9" t="n">
+      <c r="P9" t="n">
         <v>52</v>
       </c>
-      <c r="G9" t="n">
+      <c r="Q9" t="n">
         <v>73</v>
       </c>
-      <c r="H9" t="n">
+      <c r="R9" t="n">
         <v>20</v>
       </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
         <v>19</v>
       </c>
-      <c r="J9" t="n">
+      <c r="T9" t="n">
         <v>19</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
         <v>57</v>
       </c>
-      <c r="L9" t="n">
+      <c r="V9" t="n">
         <v>76</v>
       </c>
-      <c r="M9" t="n">
+      <c r="W9" t="n">
         <v>19</v>
       </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
         <v>58</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Y9" t="n">
         <v>55</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Z9" t="n">
         <v>191999945</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AA9" t="n">
         <v>192000000</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AB9" t="n">
         <v>54</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AC9" t="n">
         <v>51</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AD9" t="n">
         <v>44</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AE9" t="n">
         <v>166999956</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AF9" t="n">
         <v>167000000</v>
       </c>
     </row>
@@ -1039,66 +1289,96 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-15</v>
+      </c>
+      <c r="L10" t="n">
         <v>-19</v>
       </c>
-      <c r="C10" t="n">
+      <c r="M10" t="n">
         <v>-6</v>
       </c>
-      <c r="D10" t="n">
+      <c r="N10" t="n">
         <v>-7</v>
       </c>
-      <c r="E10" t="n">
+      <c r="O10" t="n">
         <v>-8</v>
       </c>
-      <c r="F10" t="n">
+      <c r="P10" t="n">
         <v>-25</v>
       </c>
-      <c r="G10" t="n">
+      <c r="Q10" t="n">
         <v>-33</v>
       </c>
-      <c r="H10" t="n">
+      <c r="R10" t="n">
         <v>-6</v>
       </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
         <v>-8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="T10" t="n">
         <v>-7</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
         <v>-23</v>
       </c>
-      <c r="L10" t="n">
+      <c r="V10" t="n">
         <v>-30</v>
       </c>
-      <c r="M10" t="n">
+      <c r="W10" t="n">
         <v>-4</v>
       </c>
-      <c r="N10" t="n">
+      <c r="X10" t="n">
         <v>-2</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Y10" t="n">
         <v>-1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Z10" t="n">
         <v>-9999999</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AA10" t="n">
         <v>-10000000</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AB10" t="n">
         <v>-1</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AC10" t="n">
         <v>-1</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AD10" t="n">
         <v>-1</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AE10" t="n">
         <v>-4999999</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AF10" t="n">
         <v>-5000000</v>
       </c>
     </row>
@@ -1109,66 +1389,96 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C11" t="n">
+        <v>204</v>
+      </c>
+      <c r="D11" t="n">
+        <v>263</v>
+      </c>
+      <c r="E11" t="n">
+        <v>372</v>
+      </c>
+      <c r="F11" t="n">
+        <v>752</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1124</v>
+      </c>
+      <c r="H11" t="n">
+        <v>238</v>
+      </c>
+      <c r="I11" t="n">
+        <v>439</v>
+      </c>
+      <c r="J11" t="n">
+        <v>364</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1060</v>
+      </c>
+      <c r="L11" t="n">
         <v>1424</v>
       </c>
-      <c r="C11" t="n">
+      <c r="M11" t="n">
         <v>219</v>
       </c>
-      <c r="D11" t="n">
+      <c r="N11" t="n">
         <v>388</v>
       </c>
-      <c r="E11" t="n">
+      <c r="O11" t="n">
         <v>350</v>
       </c>
-      <c r="F11" t="n">
+      <c r="P11" t="n">
         <v>972</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Q11" t="n">
         <v>1322</v>
       </c>
-      <c r="H11" t="n">
+      <c r="R11" t="n">
         <v>302</v>
       </c>
-      <c r="I11" t="n">
+      <c r="S11" t="n">
         <v>271</v>
       </c>
-      <c r="J11" t="n">
+      <c r="T11" t="n">
         <v>209</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
         <v>319</v>
       </c>
-      <c r="L11" t="n">
+      <c r="V11" t="n">
         <v>528</v>
       </c>
-      <c r="M11" t="n">
+      <c r="W11" t="n">
         <v>-1259</v>
       </c>
-      <c r="N11" t="n">
+      <c r="X11" t="n">
         <v>-41</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Y11" t="n">
         <v>121</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Z11" t="n">
         <v>-1102000121</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AA11" t="n">
         <v>-1102000000</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AB11" t="n">
         <v>187</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AC11" t="n">
         <v>359</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AD11" t="n">
         <v>-215</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AE11" t="n">
         <v>323000215</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AF11" t="n">
         <v>323000000</v>
       </c>
     </row>
@@ -1179,66 +1489,96 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>551</v>
+      </c>
+      <c r="C12" t="n">
+        <v>77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>138</v>
+      </c>
+      <c r="E12" t="n">
+        <v>168</v>
+      </c>
+      <c r="F12" t="n">
+        <v>280</v>
+      </c>
+      <c r="G12" t="n">
+        <v>448</v>
+      </c>
+      <c r="H12" t="n">
+        <v>95</v>
+      </c>
+      <c r="I12" t="n">
+        <v>168</v>
+      </c>
+      <c r="J12" t="n">
+        <v>135</v>
+      </c>
+      <c r="K12" t="n">
+        <v>441</v>
+      </c>
+      <c r="L12" t="n">
         <v>576</v>
       </c>
-      <c r="C12" t="n">
+      <c r="M12" t="n">
         <v>55</v>
       </c>
-      <c r="D12" t="n">
+      <c r="N12" t="n">
         <v>91</v>
       </c>
-      <c r="E12" t="n">
+      <c r="O12" t="n">
         <v>84</v>
       </c>
-      <c r="F12" t="n">
+      <c r="P12" t="n">
         <v>235</v>
       </c>
-      <c r="G12" t="n">
+      <c r="Q12" t="n">
         <v>319</v>
       </c>
-      <c r="H12" t="n">
+      <c r="R12" t="n">
         <v>75</v>
       </c>
-      <c r="I12" t="n">
+      <c r="S12" t="n">
         <v>103</v>
       </c>
-      <c r="J12" t="n">
+      <c r="T12" t="n">
         <v>69</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
         <v>108</v>
       </c>
-      <c r="L12" t="n">
+      <c r="V12" t="n">
         <v>177</v>
       </c>
-      <c r="M12" t="n">
+      <c r="W12" t="n">
         <v>-327</v>
       </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
         <v>21</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Y12" t="n">
         <v>26</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Z12" t="n">
         <v>-437000026</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AA12" t="n">
         <v>-437000000</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AB12" t="n">
         <v>21</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AC12" t="n">
         <v>101</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AD12" t="n">
         <v>-63</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AE12" t="n">
         <v>67000063</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AF12" t="n">
         <v>67000000</v>
       </c>
     </row>
@@ -1249,66 +1589,96 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>920</v>
+      </c>
+      <c r="C13" t="n">
+        <v>127</v>
+      </c>
+      <c r="D13" t="n">
+        <v>125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>204</v>
+      </c>
+      <c r="F13" t="n">
+        <v>472</v>
+      </c>
+      <c r="G13" t="n">
+        <v>676</v>
+      </c>
+      <c r="H13" t="n">
+        <v>143</v>
+      </c>
+      <c r="I13" t="n">
+        <v>271</v>
+      </c>
+      <c r="J13" t="n">
+        <v>229</v>
+      </c>
+      <c r="K13" t="n">
+        <v>619</v>
+      </c>
+      <c r="L13" t="n">
         <v>848</v>
       </c>
-      <c r="C13" t="n">
+      <c r="M13" t="n">
         <v>164</v>
       </c>
-      <c r="D13" t="n">
+      <c r="N13" t="n">
         <v>297</v>
       </c>
-      <c r="E13" t="n">
+      <c r="O13" t="n">
         <v>266</v>
       </c>
-      <c r="F13" t="n">
+      <c r="P13" t="n">
         <v>737</v>
       </c>
-      <c r="G13" t="n">
+      <c r="Q13" t="n">
         <v>1003</v>
       </c>
-      <c r="H13" t="n">
+      <c r="R13" t="n">
         <v>227</v>
       </c>
-      <c r="I13" t="n">
+      <c r="S13" t="n">
         <v>168</v>
       </c>
-      <c r="J13" t="n">
+      <c r="T13" t="n">
         <v>140</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
         <v>211</v>
       </c>
-      <c r="L13" t="n">
+      <c r="V13" t="n">
         <v>351</v>
       </c>
-      <c r="M13" t="n">
+      <c r="W13" t="n">
         <v>-932</v>
       </c>
-      <c r="N13" t="n">
+      <c r="X13" t="n">
         <v>-62</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Y13" t="n">
         <v>95</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Z13" t="n">
         <v>-665000095</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AA13" t="n">
         <v>-665000000</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AB13" t="n">
         <v>166</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AC13" t="n">
         <v>258</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AD13" t="n">
         <v>-152</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AE13" t="n">
         <v>256000152</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AF13" t="n">
         <v>256000000</v>
       </c>
     </row>
@@ -1319,66 +1689,96 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>411</v>
+      </c>
+      <c r="C14" t="n">
+        <v>398</v>
+      </c>
+      <c r="D14" t="n">
+        <v>398</v>
+      </c>
+      <c r="E14" t="n">
+        <v>399</v>
+      </c>
+      <c r="F14" t="n">
+        <v>399</v>
+      </c>
+      <c r="G14" t="n">
+        <v>399</v>
+      </c>
+      <c r="H14" t="n">
+        <v>399</v>
+      </c>
+      <c r="I14" t="n">
+        <v>395</v>
+      </c>
+      <c r="J14" t="n">
+        <v>391</v>
+      </c>
+      <c r="K14" t="n">
         <v>393</v>
       </c>
-      <c r="C14" t="n">
+      <c r="L14" t="n">
+        <v>393</v>
+      </c>
+      <c r="M14" t="n">
         <v>389</v>
       </c>
-      <c r="D14" t="n">
+      <c r="N14" t="n">
         <v>387</v>
       </c>
-      <c r="E14" t="n">
+      <c r="O14" t="n">
         <v>384</v>
       </c>
-      <c r="F14" t="n">
+      <c r="P14" t="n">
         <v>385</v>
       </c>
-      <c r="G14" t="n">
+      <c r="Q14" t="n">
         <v>385</v>
       </c>
-      <c r="H14" t="n">
+      <c r="R14" t="n">
         <v>379</v>
-      </c>
-      <c r="I14" t="n">
-        <v>378</v>
-      </c>
-      <c r="J14" t="n">
-        <v>375</v>
-      </c>
-      <c r="K14" t="n">
-        <v>376</v>
-      </c>
-      <c r="L14" t="n">
-        <v>376</v>
-      </c>
-      <c r="M14" t="n">
-        <v>372</v>
-      </c>
-      <c r="N14" t="n">
-        <v>374</v>
-      </c>
-      <c r="O14" t="n">
-        <v>374</v>
-      </c>
-      <c r="P14" t="n">
-        <v>374</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>374</v>
-      </c>
-      <c r="R14" t="n">
-        <v>376</v>
       </c>
       <c r="S14" t="n">
         <v>378</v>
       </c>
       <c r="T14" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U14" t="n">
         <v>376</v>
       </c>
       <c r="V14" t="n">
+        <v>376</v>
+      </c>
+      <c r="W14" t="n">
+        <v>372</v>
+      </c>
+      <c r="X14" t="n">
+        <v>374</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>374</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>374</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>374</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>376</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>378</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>376</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>376</v>
+      </c>
+      <c r="AF14" t="n">
         <v>376</v>
       </c>
     </row>
@@ -1389,66 +1789,96 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>413</v>
+      </c>
+      <c r="C15" t="n">
+        <v>399</v>
+      </c>
+      <c r="D15" t="n">
+        <v>399</v>
+      </c>
+      <c r="E15" t="n">
+        <v>400</v>
+      </c>
+      <c r="F15" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" t="n">
+        <v>400</v>
+      </c>
+      <c r="H15" t="n">
+        <v>400</v>
+      </c>
+      <c r="I15" t="n">
         <v>396</v>
       </c>
-      <c r="C15" t="n">
+      <c r="J15" t="n">
         <v>393</v>
       </c>
-      <c r="D15" t="n">
+      <c r="K15" t="n">
+        <v>396</v>
+      </c>
+      <c r="L15" t="n">
+        <v>396</v>
+      </c>
+      <c r="M15" t="n">
+        <v>393</v>
+      </c>
+      <c r="N15" t="n">
         <v>390</v>
       </c>
-      <c r="E15" t="n">
+      <c r="O15" t="n">
         <v>387</v>
       </c>
-      <c r="F15" t="n">
+      <c r="P15" t="n">
         <v>388</v>
       </c>
-      <c r="G15" t="n">
+      <c r="Q15" t="n">
         <v>388</v>
       </c>
-      <c r="H15" t="n">
+      <c r="R15" t="n">
         <v>381</v>
       </c>
-      <c r="I15" t="n">
+      <c r="S15" t="n">
         <v>379</v>
-      </c>
-      <c r="J15" t="n">
-        <v>376</v>
-      </c>
-      <c r="K15" t="n">
-        <v>378</v>
-      </c>
-      <c r="L15" t="n">
-        <v>378</v>
-      </c>
-      <c r="M15" t="n">
-        <v>372</v>
-      </c>
-      <c r="N15" t="n">
-        <v>374</v>
-      </c>
-      <c r="O15" t="n">
-        <v>380</v>
-      </c>
-      <c r="P15" t="n">
-        <v>374</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>374</v>
-      </c>
-      <c r="R15" t="n">
-        <v>385</v>
-      </c>
-      <c r="S15" t="n">
-        <v>386</v>
       </c>
       <c r="T15" t="n">
         <v>376</v>
       </c>
       <c r="U15" t="n">
+        <v>378</v>
+      </c>
+      <c r="V15" t="n">
+        <v>378</v>
+      </c>
+      <c r="W15" t="n">
+        <v>372</v>
+      </c>
+      <c r="X15" t="n">
+        <v>374</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>380</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>374</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>374</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>385</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>386</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>376</v>
+      </c>
+      <c r="AE15" t="n">
         <v>383</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AF15" t="n">
         <v>383</v>
       </c>
     </row>
@@ -1459,66 +1889,96 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="L16" t="n">
         <v>2.16</v>
       </c>
-      <c r="C16" t="n">
+      <c r="M16" t="n">
         <v>0.42</v>
       </c>
-      <c r="D16" t="n">
+      <c r="N16" t="n">
         <v>0.77</v>
       </c>
-      <c r="E16" t="n">
+      <c r="O16" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F16" t="n">
+      <c r="P16" t="n">
         <v>1.92</v>
       </c>
-      <c r="G16" t="n">
+      <c r="Q16" t="n">
         <v>2.61</v>
       </c>
-      <c r="H16" t="n">
+      <c r="R16" t="n">
         <v>0.6</v>
       </c>
-      <c r="I16" t="n">
+      <c r="S16" t="n">
         <v>0.44</v>
       </c>
-      <c r="J16" t="n">
+      <c r="T16" t="n">
         <v>0.37</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L16" t="n">
+      <c r="V16" t="n">
         <v>0.93</v>
       </c>
-      <c r="M16" t="n">
+      <c r="W16" t="n">
         <v>-2.51</v>
       </c>
-      <c r="N16" t="n">
+      <c r="X16" t="n">
         <v>-0.17</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Y16" t="n">
         <v>0.25</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Z16" t="n">
         <v>-2.03</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AA16" t="n">
         <v>-1.78</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AB16" t="n">
         <v>0.44</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AC16" t="n">
         <v>0.68</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AD16" t="n">
         <v>-0.4</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AE16" t="n">
         <v>1.08</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AF16" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -1529,66 +1989,96 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L17" t="n">
         <v>2.14</v>
       </c>
-      <c r="C17" t="n">
+      <c r="M17" t="n">
         <v>0.42</v>
       </c>
-      <c r="D17" t="n">
+      <c r="N17" t="n">
         <v>0.76</v>
       </c>
-      <c r="E17" t="n">
+      <c r="O17" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F17" t="n">
+      <c r="P17" t="n">
         <v>1.9</v>
       </c>
-      <c r="G17" t="n">
+      <c r="Q17" t="n">
         <v>2.59</v>
       </c>
-      <c r="H17" t="n">
+      <c r="R17" t="n">
         <v>0.6</v>
       </c>
-      <c r="I17" t="n">
+      <c r="S17" t="n">
         <v>0.44</v>
       </c>
-      <c r="J17" t="n">
+      <c r="T17" t="n">
         <v>0.37</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L17" t="n">
+      <c r="V17" t="n">
         <v>0.93</v>
       </c>
-      <c r="M17" t="n">
+      <c r="W17" t="n">
         <v>-2.51</v>
       </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
         <v>-0.17</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Y17" t="n">
         <v>0.25</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Z17" t="n">
         <v>-2.03</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AA17" t="n">
         <v>-1.78</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AB17" t="n">
         <v>0.43</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AC17" t="n">
         <v>0.67</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AD17" t="n">
         <v>-0.4</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AE17" t="n">
         <v>1.07</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AF17" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -1600,37 +2090,59 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2425</v>
+        <v>0.23</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2425</v>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.2425</v>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1643,26 +2155,36 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>0.97</v>
+      </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1675,7 +2197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,135 +2213,205 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Year Ended 2016</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2017</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2017</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2017</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2017</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2017</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2017</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 2018</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 2018</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 2018</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 2018</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Year Ended 2018</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Year Ended 2018</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Q1 2019</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Q2 2019</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Q3 2019</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Q4 2019</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2019</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2019</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Q1 2020</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Q2 2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Q3 2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Q4 2020</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2020</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2020</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Q1 2021</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Q2 2021</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Q3 2021</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Q4 2021</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2021</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2021</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Q1 2022</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Q2 2022</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Q3 2022</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Q4 2022</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Year Ended 2022</t>
         </is>
@@ -1832,111 +2424,169 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>15797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3438</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3851</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3798</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11718</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15516</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>net sales</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>15516</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3440</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3799</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3838</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12017</v>
+      </c>
+      <c r="N2" t="n">
         <v>15855</v>
       </c>
-      <c r="C2" t="n">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>net sales</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>15855</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3783</v>
       </c>
-      <c r="D2" t="n">
+      <c r="R2" t="n">
         <v>4085</v>
       </c>
-      <c r="E2" t="n">
+      <c r="S2" t="n">
         <v>4089</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
         <is>
           <t>revenues</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
         <v>16580</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>16383</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>revenues</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>16383</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>13800000000</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>revenues</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>13800000000</v>
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>16383</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>16383</v>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
+        <v>13800000000</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>revenues</t>
+        </is>
+      </c>
+      <c r="AK2" t="n">
+        <v>13800000000</v>
+      </c>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10077</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2229</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2414</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2305</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7571</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9876</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>cost of goods sold and occupancy expenses</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>9876</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2137</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2320</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2313</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7476</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9789</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>revenues</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
         <v>16580</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>net sales</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>3706</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3998</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>net sales</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>2107</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3275</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3994</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
           <t>net sales</t>
@@ -1944,1346 +2594,1964 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
+        <v>3706</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4005</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3998</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>net sales</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>2107</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3275</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3994</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>net sales</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
         <v>3991</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AM3" t="n">
         <v>4211</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AN3" t="n">
         <v>3943</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AO3" t="n">
         <v>16669996057</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AP3" t="n">
         <v>16670000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5720</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1209</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1437</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1493</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4147</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5640</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>gross profit</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>5640</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1303</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1479</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1525</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4541</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6066</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>cost of goods sold and occupancy expenses</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="P4" t="n">
         <v>9789</v>
       </c>
-      <c r="C4" t="n">
+      <c r="Q4" t="n">
         <v>2356</v>
       </c>
-      <c r="D4" t="n">
+      <c r="R4" t="n">
         <v>2458</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
         <v>2466</v>
       </c>
-      <c r="F4" t="n">
+      <c r="T4" t="n">
         <v>7792</v>
       </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
         <v>10258</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>cost of goods sold and occupancy expenses</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="W4" t="n">
         <v>10258</v>
       </c>
-      <c r="J4" t="n">
+      <c r="X4" t="n">
         <v>2362</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Y4" t="n">
         <v>2449</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Z4" t="n">
         <v>2439</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AA4" t="n">
         <v>7811</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AB4" t="n">
         <v>10250</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>cost of goods sold and occupancy expenses</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="AD4" t="n">
         <v>10250</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AE4" t="n">
         <v>1839</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
         <v>2126</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AG4" t="n">
         <v>2374</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AH4" t="n">
         <v>9094997626</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AI4" t="n">
         <v>9095000000</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>cost of goods sold and occupancy expenses</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="AK4" t="n">
         <v>9095000000</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AL4" t="n">
         <v>2361</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AM4" t="n">
         <v>2388</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AN4" t="n">
         <v>2282</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AO4" t="n">
         <v>10032997718</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AP4" t="n">
         <v>10033000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4196</v>
+      </c>
+      <c r="C5" t="n">
+        <v>987</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1158</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3345</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4449</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>operating expenses</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>4449</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1049</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1028</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1147</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3440</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4587</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>gross profit</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="P5" t="n">
         <v>6066</v>
       </c>
-      <c r="C5" t="n">
+      <c r="Q5" t="n">
         <v>1427</v>
       </c>
-      <c r="D5" t="n">
+      <c r="R5" t="n">
         <v>1627</v>
       </c>
-      <c r="E5" t="n">
+      <c r="S5" t="n">
         <v>1623</v>
       </c>
-      <c r="F5" t="n">
+      <c r="T5" t="n">
         <v>4699</v>
       </c>
-      <c r="G5" t="n">
+      <c r="U5" t="n">
         <v>6322</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>gross profit</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="W5" t="n">
         <v>6322</v>
       </c>
-      <c r="J5" t="n">
+      <c r="X5" t="n">
         <v>1344</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Y5" t="n">
         <v>1556</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Z5" t="n">
         <v>1559</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AA5" t="n">
         <v>4574</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AB5" t="n">
         <v>6133</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>gross profit</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="AD5" t="n">
         <v>6133</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AE5" t="n">
         <v>268</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
         <v>1149</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AG5" t="n">
         <v>1620</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AH5" t="n">
         <v>4704998380</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AI5" t="n">
         <v>4705000000</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>gross profit</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="AK5" t="n">
         <v>4705000000</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AL5" t="n">
         <v>1630</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AM5" t="n">
         <v>1823</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AN5" t="n">
         <v>1661</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AO5" t="n">
         <v>6636998339</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AP5" t="n">
         <v>6637000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>operating income</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1524</v>
+      </c>
+      <c r="C6" t="n">
+        <v>222</v>
+      </c>
+      <c r="D6" t="n">
+        <v>279</v>
+      </c>
+      <c r="E6" t="n">
+        <v>389</v>
+      </c>
+      <c r="F6" t="n">
+        <v>802</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1191</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>operating income</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1191</v>
+      </c>
+      <c r="J6" t="n">
+        <v>254</v>
+      </c>
+      <c r="K6" t="n">
+        <v>451</v>
+      </c>
+      <c r="L6" t="n">
+        <v>378</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1101</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1479</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>operating expenses</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="P6" t="n">
         <v>4587</v>
       </c>
-      <c r="C6" t="n">
+      <c r="Q6" t="n">
         <v>1198</v>
       </c>
-      <c r="D6" t="n">
+      <c r="R6" t="n">
         <v>1229</v>
       </c>
-      <c r="E6" t="n">
+      <c r="S6" t="n">
         <v>1260</v>
       </c>
-      <c r="F6" t="n">
+      <c r="T6" t="n">
         <v>3700</v>
       </c>
-      <c r="G6" t="n">
+      <c r="U6" t="n">
         <v>4960</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>operating expenses</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="W6" t="n">
         <v>4960</v>
       </c>
-      <c r="J6" t="n">
+      <c r="X6" t="n">
         <v>1028</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Y6" t="n">
         <v>1274</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Z6" t="n">
         <v>1338</v>
       </c>
-      <c r="M6" t="n">
+      <c r="AA6" t="n">
         <v>4221</v>
       </c>
-      <c r="N6" t="n">
+      <c r="AB6" t="n">
         <v>5559</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>operating expenses</t>
         </is>
       </c>
-      <c r="P6" t="n">
+      <c r="AD6" t="n">
         <v>5559</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AE6" t="n">
         <v>1512</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
         <v>1076</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AG6" t="n">
         <v>1445</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AH6" t="n">
         <v>5566998555</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AI6" t="n">
         <v>5567000000</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>operating expenses</t>
         </is>
       </c>
-      <c r="W6" t="n">
+      <c r="AK6" t="n">
         <v>5567000000</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AL6" t="n">
         <v>1390</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AM6" t="n">
         <v>1414</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AN6" t="n">
         <v>1508</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AO6" t="n">
         <v>5826998492</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AP6" t="n">
         <v>5827000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>59</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>75</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>interest expense</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>56</v>
+      </c>
+      <c r="N7" t="n">
+        <v>74</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>operating income</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="P7" t="n">
         <v>1479</v>
       </c>
-      <c r="C7" t="n">
+      <c r="Q7" t="n">
         <v>229</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
         <v>398</v>
       </c>
-      <c r="E7" t="n">
+      <c r="S7" t="n">
         <v>363</v>
       </c>
-      <c r="F7" t="n">
+      <c r="T7" t="n">
         <v>999</v>
       </c>
-      <c r="G7" t="n">
+      <c r="U7" t="n">
         <v>1362</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>operating income</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="W7" t="n">
         <v>1362</v>
       </c>
-      <c r="J7" t="n">
+      <c r="X7" t="n">
         <v>316</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Y7" t="n">
         <v>282</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Z7" t="n">
         <v>221</v>
       </c>
-      <c r="M7" t="n">
+      <c r="AA7" t="n">
         <v>353</v>
       </c>
-      <c r="N7" t="n">
+      <c r="AB7" t="n">
         <v>574</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>operating income</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="AD7" t="n">
         <v>574</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AE7" t="n">
         <v>-1244</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
         <v>73</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AG7" t="n">
         <v>175</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AH7" t="n">
         <v>-862000175</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AI7" t="n">
         <v>-862000000</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>operating income</t>
         </is>
       </c>
-      <c r="W7" t="n">
+      <c r="AK7" t="n">
         <v>-862000000</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AL7" t="n">
         <v>240</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AM7" t="n">
         <v>409</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AN7" t="n">
         <v>153</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AO7" t="n">
         <v>809999847</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AP7" t="n">
         <v>810000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>interest income</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-19</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>interest expense</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="P8" t="n">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
+      <c r="Q8" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="R8" t="n">
         <v>17</v>
       </c>
-      <c r="E8" t="n">
+      <c r="S8" t="n">
         <v>21</v>
       </c>
-      <c r="F8" t="n">
+      <c r="T8" t="n">
         <v>52</v>
       </c>
-      <c r="G8" t="n">
+      <c r="U8" t="n">
         <v>73</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>interest expense</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="W8" t="n">
         <v>73</v>
       </c>
-      <c r="J8" t="n">
+      <c r="X8" t="n">
         <v>20</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Y8" t="n">
         <v>19</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Z8" t="n">
         <v>19</v>
       </c>
-      <c r="M8" t="n">
+      <c r="AA8" t="n">
         <v>57</v>
       </c>
-      <c r="N8" t="n">
+      <c r="AB8" t="n">
         <v>76</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>loss on extinguishment of debt</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
         <v>58</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AG8" t="n">
         <v>0</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AH8" t="n">
         <v>58000000</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AI8" t="n">
         <v>58000000</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>loss on extinguishment of debt</t>
         </is>
       </c>
-      <c r="W8" t="n">
+      <c r="AK8" t="n">
         <v>58000000</v>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="n">
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AN8" t="n">
         <v>325</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AO8" t="n">
         <v>324999675</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AP8" t="n">
         <v>325000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>income before income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C9" t="n">
+        <v>204</v>
+      </c>
+      <c r="D9" t="n">
+        <v>263</v>
+      </c>
+      <c r="E9" t="n">
+        <v>372</v>
+      </c>
+      <c r="F9" t="n">
+        <v>752</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1124</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>income before income taxes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1124</v>
+      </c>
+      <c r="J9" t="n">
+        <v>238</v>
+      </c>
+      <c r="K9" t="n">
+        <v>439</v>
+      </c>
+      <c r="L9" t="n">
+        <v>364</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1060</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1424</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>interest income</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="P9" t="n">
         <v>-19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="Q9" t="n">
         <v>-6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="R9" t="n">
         <v>-7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
         <v>-8</v>
       </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
         <v>-25</v>
       </c>
-      <c r="G9" t="n">
+      <c r="U9" t="n">
         <v>-33</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>interest income</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
         <v>-33</v>
       </c>
-      <c r="J9" t="n">
+      <c r="X9" t="n">
         <v>-6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Y9" t="n">
         <v>-8</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Z9" t="n">
         <v>-7</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AA9" t="n">
         <v>-23</v>
       </c>
-      <c r="N9" t="n">
+      <c r="AB9" t="n">
         <v>-30</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>interest expense</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="AD9" t="n">
         <v>76</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AE9" t="n">
         <v>19</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
         <v>58</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AG9" t="n">
         <v>55</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AH9" t="n">
         <v>191999945</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AI9" t="n">
         <v>192000000</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>interest expense</t>
         </is>
       </c>
-      <c r="W9" t="n">
+      <c r="AK9" t="n">
         <v>192000000</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AL9" t="n">
         <v>54</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AM9" t="n">
         <v>51</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AN9" t="n">
         <v>44</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AO9" t="n">
         <v>166999956</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AP9" t="n">
         <v>167000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>551</v>
+      </c>
+      <c r="C10" t="n">
+        <v>77</v>
+      </c>
+      <c r="D10" t="n">
+        <v>138</v>
+      </c>
+      <c r="E10" t="n">
+        <v>168</v>
+      </c>
+      <c r="F10" t="n">
+        <v>280</v>
+      </c>
+      <c r="G10" t="n">
+        <v>448</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>income taxes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>448</v>
+      </c>
+      <c r="J10" t="n">
+        <v>95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>168</v>
+      </c>
+      <c r="L10" t="n">
+        <v>135</v>
+      </c>
+      <c r="M10" t="n">
+        <v>441</v>
+      </c>
+      <c r="N10" t="n">
+        <v>576</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>income before income taxes</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="P10" t="n">
         <v>1424</v>
       </c>
-      <c r="C10" t="n">
+      <c r="Q10" t="n">
         <v>219</v>
       </c>
-      <c r="D10" t="n">
+      <c r="R10" t="n">
         <v>388</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>350</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
         <v>972</v>
       </c>
-      <c r="G10" t="n">
+      <c r="U10" t="n">
         <v>1322</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>income before income taxes</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="W10" t="n">
         <v>1322</v>
       </c>
-      <c r="J10" t="n">
+      <c r="X10" t="n">
         <v>302</v>
       </c>
-      <c r="K10" t="n">
+      <c r="Y10" t="n">
         <v>271</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Z10" t="n">
         <v>209</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AA10" t="n">
         <v>319</v>
       </c>
-      <c r="N10" t="n">
+      <c r="AB10" t="n">
         <v>528</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>interest income</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="AD10" t="n">
         <v>-30</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AE10" t="n">
         <v>-4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
         <v>-2</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AG10" t="n">
         <v>-1</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AH10" t="n">
         <v>-9999999</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AI10" t="n">
         <v>-10000000</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AJ10" t="inlineStr">
         <is>
           <t>interest income</t>
         </is>
       </c>
-      <c r="W10" t="n">
+      <c r="AK10" t="n">
         <v>-10000000</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AL10" t="n">
         <v>-1</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AM10" t="n">
         <v>-1</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AN10" t="n">
         <v>-1</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AO10" t="n">
         <v>-4999999</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AP10" t="n">
         <v>-5000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>920</v>
+      </c>
+      <c r="C11" t="n">
+        <v>127</v>
+      </c>
+      <c r="D11" t="n">
+        <v>125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>204</v>
+      </c>
+      <c r="F11" t="n">
+        <v>472</v>
+      </c>
+      <c r="G11" t="n">
+        <v>676</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>net income</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>676</v>
+      </c>
+      <c r="J11" t="n">
+        <v>143</v>
+      </c>
+      <c r="K11" t="n">
+        <v>271</v>
+      </c>
+      <c r="L11" t="n">
+        <v>229</v>
+      </c>
+      <c r="M11" t="n">
+        <v>619</v>
+      </c>
+      <c r="N11" t="n">
+        <v>848</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>income taxes</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="P11" t="n">
         <v>576</v>
       </c>
-      <c r="C11" t="n">
+      <c r="Q11" t="n">
         <v>55</v>
       </c>
-      <c r="D11" t="n">
+      <c r="R11" t="n">
         <v>91</v>
       </c>
-      <c r="E11" t="n">
+      <c r="S11" t="n">
         <v>84</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>235</v>
       </c>
-      <c r="G11" t="n">
+      <c r="U11" t="n">
         <v>319</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>income taxes</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="W11" t="n">
         <v>319</v>
       </c>
-      <c r="J11" t="n">
+      <c r="X11" t="n">
         <v>75</v>
       </c>
-      <c r="K11" t="n">
+      <c r="Y11" t="n">
         <v>103</v>
       </c>
-      <c r="L11" t="n">
+      <c r="Z11" t="n">
         <v>69</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AA11" t="n">
         <v>108</v>
       </c>
-      <c r="N11" t="n">
+      <c r="AB11" t="n">
         <v>177</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>income before income taxes</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="AD11" t="n">
         <v>528</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AE11" t="n">
         <v>-1259</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
         <v>-41</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AG11" t="n">
         <v>121</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AH11" t="n">
         <v>-1102000121</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AI11" t="n">
         <v>-1102000000</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>income before income taxes</t>
         </is>
       </c>
-      <c r="W11" t="n">
+      <c r="AK11" t="n">
         <v>-1102000000</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AL11" t="n">
         <v>187</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AM11" t="n">
         <v>359</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AN11" t="n">
         <v>-215</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AO11" t="n">
         <v>323000215</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AP11" t="n">
         <v>323000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>weighted-average number of shares - basic</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>411</v>
+      </c>
+      <c r="C12" t="n">
+        <v>398</v>
+      </c>
+      <c r="D12" t="n">
+        <v>398</v>
+      </c>
+      <c r="E12" t="n">
+        <v>399</v>
+      </c>
+      <c r="F12" t="n">
+        <v>399</v>
+      </c>
+      <c r="G12" t="n">
+        <v>399</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>weighted-average number of shares - basic</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>399</v>
+      </c>
+      <c r="J12" t="n">
+        <v>399</v>
+      </c>
+      <c r="K12" t="n">
+        <v>395</v>
+      </c>
+      <c r="L12" t="n">
+        <v>391</v>
+      </c>
+      <c r="M12" t="n">
+        <v>393</v>
+      </c>
+      <c r="N12" t="n">
+        <v>393</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>net income</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="P12" t="n">
         <v>848</v>
       </c>
-      <c r="C12" t="n">
+      <c r="Q12" t="n">
         <v>164</v>
       </c>
-      <c r="D12" t="n">
+      <c r="R12" t="n">
         <v>297</v>
       </c>
-      <c r="E12" t="n">
+      <c r="S12" t="n">
         <v>266</v>
       </c>
-      <c r="F12" t="n">
+      <c r="T12" t="n">
         <v>737</v>
       </c>
-      <c r="G12" t="n">
+      <c r="U12" t="n">
         <v>1003</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>net income</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="W12" t="n">
         <v>1003</v>
       </c>
-      <c r="J12" t="n">
+      <c r="X12" t="n">
         <v>227</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Y12" t="n">
         <v>168</v>
       </c>
-      <c r="L12" t="n">
+      <c r="Z12" t="n">
         <v>140</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AA12" t="n">
         <v>211</v>
       </c>
-      <c r="N12" t="n">
+      <c r="AB12" t="n">
         <v>351</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>income taxes</t>
         </is>
       </c>
-      <c r="P12" t="n">
+      <c r="AD12" t="n">
         <v>177</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AE12" t="n">
         <v>-327</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
         <v>21</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AG12" t="n">
         <v>26</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AH12" t="n">
         <v>-437000026</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AI12" t="n">
         <v>-437000000</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>income taxes</t>
         </is>
       </c>
-      <c r="W12" t="n">
+      <c r="AK12" t="n">
         <v>-437000000</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AM12" t="n">
         <v>101</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AN12" t="n">
         <v>-63</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AO12" t="n">
         <v>67000063</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AP12" t="n">
         <v>67000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>weighted-average number of shares - diluted</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>413</v>
+      </c>
+      <c r="C13" t="n">
+        <v>399</v>
+      </c>
+      <c r="D13" t="n">
+        <v>399</v>
+      </c>
+      <c r="E13" t="n">
+        <v>400</v>
+      </c>
+      <c r="F13" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" t="n">
+        <v>400</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>weighted-average number of shares - diluted</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>400</v>
+      </c>
+      <c r="J13" t="n">
+        <v>400</v>
+      </c>
+      <c r="K13" t="n">
+        <v>396</v>
+      </c>
+      <c r="L13" t="n">
+        <v>393</v>
+      </c>
+      <c r="M13" t="n">
+        <v>396</v>
+      </c>
+      <c r="N13" t="n">
+        <v>396</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>weighted-average number of shares - basic</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="P13" t="n">
         <v>393</v>
       </c>
-      <c r="C13" t="n">
+      <c r="Q13" t="n">
         <v>389</v>
       </c>
-      <c r="D13" t="n">
+      <c r="R13" t="n">
         <v>387</v>
       </c>
-      <c r="E13" t="n">
+      <c r="S13" t="n">
         <v>384</v>
       </c>
-      <c r="F13" t="n">
+      <c r="T13" t="n">
         <v>385</v>
       </c>
-      <c r="G13" t="n">
+      <c r="U13" t="n">
         <v>385</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>weighted-average number of shares - basic</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="W13" t="n">
         <v>385</v>
       </c>
-      <c r="J13" t="n">
+      <c r="X13" t="n">
         <v>379</v>
       </c>
-      <c r="K13" t="n">
+      <c r="Y13" t="n">
         <v>378</v>
       </c>
-      <c r="L13" t="n">
+      <c r="Z13" t="n">
         <v>375</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AA13" t="n">
         <v>376</v>
       </c>
-      <c r="N13" t="n">
+      <c r="AB13" t="n">
         <v>376</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>net income</t>
         </is>
       </c>
-      <c r="P13" t="n">
+      <c r="AD13" t="n">
         <v>351</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AE13" t="n">
         <v>-932</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
         <v>-62</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AG13" t="n">
         <v>95</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AH13" t="n">
         <v>-665000095</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AI13" t="n">
         <v>-665000000</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AJ13" t="inlineStr">
         <is>
           <t>net income</t>
         </is>
       </c>
-      <c r="W13" t="n">
+      <c r="AK13" t="n">
         <v>-665000000</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AL13" t="n">
         <v>166</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AM13" t="n">
         <v>258</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AN13" t="n">
         <v>-152</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AO13" t="n">
         <v>256000152</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AP13" t="n">
         <v>256000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>earnings per share - basic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>earnings per share - basic</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>weighted-average number of shares - diluted</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="P14" t="n">
         <v>396</v>
       </c>
-      <c r="C14" t="n">
+      <c r="Q14" t="n">
         <v>393</v>
       </c>
-      <c r="D14" t="n">
+      <c r="R14" t="n">
         <v>390</v>
       </c>
-      <c r="E14" t="n">
+      <c r="S14" t="n">
         <v>387</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>388</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>388</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>weighted-average number of shares - diluted</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="W14" t="n">
         <v>388</v>
       </c>
-      <c r="J14" t="n">
+      <c r="X14" t="n">
         <v>381</v>
       </c>
-      <c r="K14" t="n">
+      <c r="Y14" t="n">
         <v>379</v>
-      </c>
-      <c r="L14" t="n">
-        <v>376</v>
-      </c>
-      <c r="M14" t="n">
-        <v>378</v>
-      </c>
-      <c r="N14" t="n">
-        <v>378</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>weighted-average number of shares - basic</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>376</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>372</v>
-      </c>
-      <c r="R14" t="n">
-        <v>374</v>
-      </c>
-      <c r="S14" t="n">
-        <v>374</v>
-      </c>
-      <c r="T14" t="n">
-        <v>374</v>
-      </c>
-      <c r="U14" t="n">
-        <v>374</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>weighted-average number of shares - basic</t>
-        </is>
-      </c>
-      <c r="W14" t="n">
-        <v>374</v>
-      </c>
-      <c r="X14" t="n">
-        <v>376</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>378</v>
       </c>
       <c r="Z14" t="n">
         <v>376</v>
       </c>
       <c r="AA14" t="n">
+        <v>378</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>378</v>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>weighted-average number of shares - basic</t>
+        </is>
+      </c>
+      <c r="AD14" t="n">
         <v>376</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
+        <v>372</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>374</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>374</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>374</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>374</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>weighted-average number of shares - basic</t>
+        </is>
+      </c>
+      <c r="AK14" t="n">
+        <v>374</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>376</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>378</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>376</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>376</v>
+      </c>
+      <c r="AP14" t="n">
         <v>376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>earnings per share - diluted</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>earnings per share - diluted</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>earnings per share - basic</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="P15" t="n">
         <v>2.16</v>
       </c>
-      <c r="C15" t="n">
+      <c r="Q15" t="n">
         <v>0.42</v>
       </c>
-      <c r="D15" t="n">
+      <c r="R15" t="n">
         <v>0.77</v>
       </c>
-      <c r="E15" t="n">
+      <c r="S15" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F15" t="n">
+      <c r="T15" t="n">
         <v>1.92</v>
       </c>
-      <c r="G15" t="n">
+      <c r="U15" t="n">
         <v>2.61</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>earnings per share - basic</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="W15" t="n">
         <v>2.61</v>
       </c>
-      <c r="J15" t="n">
+      <c r="X15" t="n">
         <v>0.6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="Y15" t="n">
         <v>0.44</v>
       </c>
-      <c r="L15" t="n">
+      <c r="Z15" t="n">
         <v>0.37</v>
       </c>
-      <c r="M15" t="n">
+      <c r="AA15" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="N15" t="n">
+      <c r="AB15" t="n">
         <v>0.93</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>weighted-average number of shares - diluted</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="AD15" t="n">
         <v>378</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AE15" t="n">
         <v>372</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
         <v>374</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AG15" t="n">
         <v>380</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AH15" t="n">
         <v>374</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AI15" t="n">
         <v>374</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>weighted-average number of shares - diluted</t>
         </is>
       </c>
-      <c r="W15" t="n">
+      <c r="AK15" t="n">
         <v>374</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AL15" t="n">
         <v>385</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AM15" t="n">
         <v>386</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AN15" t="n">
         <v>376</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AO15" t="n">
         <v>383</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AP15" t="n">
         <v>383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>cash dividends declared and paid per share</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>cash dividends declared and paid per share</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>earnings per share - diluted</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="P16" t="n">
         <v>2.14</v>
       </c>
-      <c r="C16" t="n">
+      <c r="Q16" t="n">
         <v>0.42</v>
       </c>
-      <c r="D16" t="n">
+      <c r="R16" t="n">
         <v>0.76</v>
       </c>
-      <c r="E16" t="n">
+      <c r="S16" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F16" t="n">
+      <c r="T16" t="n">
         <v>1.9</v>
       </c>
-      <c r="G16" t="n">
+      <c r="U16" t="n">
         <v>2.59</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>earnings per share - diluted</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="W16" t="n">
         <v>2.59</v>
       </c>
-      <c r="J16" t="n">
+      <c r="X16" t="n">
         <v>0.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Y16" t="n">
         <v>0.44</v>
       </c>
-      <c r="L16" t="n">
+      <c r="Z16" t="n">
         <v>0.37</v>
       </c>
-      <c r="M16" t="n">
+      <c r="AA16" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="N16" t="n">
+      <c r="AB16" t="n">
         <v>0.93</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>earnings per share - basic</t>
         </is>
       </c>
-      <c r="P16" t="n">
+      <c r="AD16" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AE16" t="n">
         <v>-2.51</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
         <v>-0.17</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AG16" t="n">
         <v>0.25</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AH16" t="n">
         <v>-2.03</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AI16" t="n">
         <v>-1.78</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AJ16" t="inlineStr">
         <is>
           <t>earnings per share - basic</t>
         </is>
       </c>
-      <c r="W16" t="n">
+      <c r="AK16" t="n">
         <v>-1.78</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AL16" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AM16" t="n">
         <v>0.68</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AN16" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AO16" t="n">
         <v>1.08</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AP16" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>cash dividends declared and paid per share</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>0.2425</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2425</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.2425</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>common stock, dividends, per share, declared</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>cash dividends declared and paid per share</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>common stock, dividends, per share, declared</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
         <v>0.97</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AC17" t="inlineStr">
         <is>
           <t>earnings per share - diluted</t>
         </is>
       </c>
-      <c r="P17" t="n">
+      <c r="AD17" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AE17" t="n">
         <v>-2.51</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
         <v>-0.17</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AG17" t="n">
         <v>0.25</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AH17" t="n">
         <v>-2.03</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AI17" t="n">
         <v>-1.78</v>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="AJ17" t="inlineStr">
         <is>
           <t>earnings per share - diluted</t>
         </is>
       </c>
-      <c r="W17" t="n">
+      <c r="AK17" t="n">
         <v>-1.78</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AL17" t="n">
         <v>0.43</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AM17" t="n">
         <v>0.67</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AN17" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AO17" t="n">
         <v>1.07</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AP17" t="n">
         <v>0.67</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>common stock, dividends, per share, declared</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>cash dividends declared and paid per share</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>0.2425</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.2425</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.2425</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
@@ -3291,21 +4559,51 @@
           <t>common stock, dividends, per share, declared</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>cash dividends declared and paid per share</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.2425</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2425</v>
+      </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>common stock, dividends, per share, declared</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
